--- a/RestfulBookerTestsForPOST.xlsx
+++ b/RestfulBookerTestsForPOST.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
   <si>
     <t>TID</t>
   </si>
@@ -272,7 +272,7 @@
     <t>{ ..., "discount": 10 }</t>
   </si>
   <si>
-    <t>Status 200 (ignores extras) or 400</t>
+    <t>Status 400 (ignores extras) or 400</t>
   </si>
   <si>
     <t>Verify booking with malformed JSON</t>
@@ -360,13 +360,85 @@
   </si>
   <si>
     <t>Response time &lt; 1000ms</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>Valid Booking ID</t>
+  </si>
+  <si>
+    <t>1. Send GET request with a valid booking ID. 2. Check response status and data.</t>
+  </si>
+  <si>
+    <t>Status: 200 OK
+Response: Returns booking details (firstname, lastname, dates, etc.) matching the ID.</t>
+  </si>
+  <si>
+    <t>Invalid Booking ID (Non-existent)</t>
+  </si>
+  <si>
+    <t>1. Send GET request with an ID that doesn’t exist.
+2. Check response.</t>
+  </si>
+  <si>
+    <t>id = 999999</t>
+  </si>
+  <si>
+    <t>Status: 404 Not Found
+Response: Error message like "Not Found" or empty response.</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Invalid Booking ID (Non-numeric)</t>
+  </si>
+  <si>
+    <t>1. Send GET request with a non-numeric ID (e.g., string).
+2. Check response.</t>
+  </si>
+  <si>
+    <t>id = "abc"</t>
+  </si>
+  <si>
+    <t>Status: 400 Bad Request or 404 Not Found
+Response: Error for invalid input.</t>
+  </si>
+  <si>
+    <t>Missing Booking ID</t>
+  </si>
+  <si>
+    <t>1. Send GET request without an ID.
+2. Check response.</t>
+  </si>
+  <si>
+    <t>id = (empty)</t>
+  </si>
+  <si>
+    <t>Status: 405 Method Not Allowed or 404 Not Found
+Response: Error for invalid endpoint.</t>
+  </si>
+  <si>
+    <t>Validate Response Schema</t>
+  </si>
+  <si>
+    <t>1. Send GET request with valid ID.
+2. Verify JSON structure and data types.</t>
+  </si>
+  <si>
+    <t>id = 1</t>
+  </si>
+  <si>
+    <t>Status: 200 OK
+Response: Matches schema (e.g., firstname is string, depositpaid is boolean).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -377,13 +449,13 @@
       <b/>
       <sz val="11.0"/>
       <color rgb="FFF5F5F5"/>
-      <name val="DeepSeek-CJK-patch"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="11.0"/>
       <color rgb="FFF5F5F5"/>
-      <name val="Arial"/>
+      <name val="DeepSeek-CJK-patch"/>
     </font>
     <font>
       <b/>
@@ -409,8 +481,27 @@
       <color rgb="FFF8FAFF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF404040"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF404040"/>
+      <name val="DeepSeek-CJK-patch"/>
+    </font>
+    <font>
+      <color rgb="FF404040"/>
+      <name val="Menlo"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,8 +550,20 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF93C47D"/>
+        <bgColor rgb="FF93C47D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3D85C6"/>
+        <bgColor rgb="FF3D85C6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border/>
     <border>
       <bottom style="thin">
@@ -472,11 +575,16 @@
         <color rgb="FF525252"/>
       </bottom>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FFE5E5E5"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -526,7 +634,32 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="8" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="10" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="10" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="3" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -739,6 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -757,19 +891,19 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
@@ -1166,7 +1300,7 @@
       <c r="A22" s="4">
         <v>21.0</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -1175,16 +1309,18 @@
       <c r="D22" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F22" s="6"/>
+      <c r="F22" s="7" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4">
         <v>22.0</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="7" t="s">
         <v>87</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -1202,7 +1338,7 @@
       <c r="A24" s="4">
         <v>23.0</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -1238,7 +1374,7 @@
       <c r="A26" s="14">
         <v>25.0</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -1325,13 +1461,116 @@
       <c r="F30" s="18"/>
     </row>
     <row r="31">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="A31" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="21">
+        <v>1.0</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F32" s="23"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="24">
+        <v>2.0</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="24">
+        <v>3.0</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="25">
+        <v>4.0</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="D35" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="F36" s="27" t="s">
+        <v>124</v>
+      </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>